--- a/Mechanical/PartsOrderForm_BME464L(Oct24).xlsx
+++ b/Mechanical/PartsOrderForm_BME464L(Oct24).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>J152-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-search/en?keywords=PPTC021LGBN-RC</t>
   </si>
 </sst>
 </file>
@@ -649,7 +652,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,8 +827,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="D9" s="15"/>
+      <c r="F9" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:11" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
